--- a/manuscript/Figures_&_tables/Supplementary Table 3 Nutrient Solution.xlsx
+++ b/manuscript/Figures_&_tables/Supplementary Table 3 Nutrient Solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\montazeaud\Documents\RECHERCHE\Postdoc\Montpellier\SolACE 3\SolACE_wheat_mixtures\manuscript\Figures_&amp;_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B24BA8A-8FFB-41A1-8344-0B8C0867CEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633C17C1-B48A-4731-9FF9-E8479E5B1D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9AEEB456-9BA0-4284-ADCD-FE894DC80AAE}"/>
   </bookViews>
@@ -150,17 +150,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C84A69-4DDC-479A-9802-2E9714D35626}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,34 +490,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -575,11 +575,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -648,9 +648,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/manuscript/Figures_&_tables/Supplementary Table 3 Nutrient Solution.xlsx
+++ b/manuscript/Figures_&_tables/Supplementary Table 3 Nutrient Solution.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\montazeaud\Documents\RECHERCHE\Postdoc\Montpellier\SolACE 3\SolACE_wheat_mixtures\manuscript\Figures_&amp;_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633C17C1-B48A-4731-9FF9-E8479E5B1D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DCCAC8-5EF9-4799-9230-8AF7E14F07FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9AEEB456-9BA0-4284-ADCD-FE894DC80AAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AEEB456-9BA0-4284-ADCD-FE894DC80AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>molecule</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Fe EDTA</t>
   </si>
   <si>
-    <t>concentration (g/L)</t>
-  </si>
-  <si>
     <t>molar mass</t>
   </si>
   <si>
@@ -85,13 +82,25 @@
   </si>
   <si>
     <t>Composition of the nutrient solution</t>
+  </si>
+  <si>
+    <t>concentration Mm/L</t>
+  </si>
+  <si>
+    <t>concentration g/L</t>
+  </si>
+  <si>
+    <t>concentration mg/L</t>
+  </si>
+  <si>
+    <t>concentration µM/L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +120,20 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,9 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -160,6 +186,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,182 +508,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C84A69-4DDC-479A-9802-2E9714D35626}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>174.18</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <f>C5/1000*B5</f>
+        <v>0.17418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>101.1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D9" si="0">C6/1000*B6</f>
+        <v>0.50549999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>236.15</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.59037499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>246</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>147.01</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>174.18</v>
-      </c>
-      <c r="C5">
-        <v>522.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>101.1</v>
-      </c>
-      <c r="C6">
-        <v>1516.4999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>236.15</v>
-      </c>
-      <c r="C7">
-        <v>1771.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>246</v>
-      </c>
-      <c r="C8">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>147.01</v>
-      </c>
-      <c r="C9">
-        <v>882.06000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="8">
         <v>61.83</v>
       </c>
-      <c r="C11">
-        <v>1.8548999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8">
+        <f>C12/1000*B12</f>
+        <v>0.61829999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="8">
         <v>197.91</v>
       </c>
-      <c r="C12">
-        <v>2.6717849999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C13" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:D17" si="1">C13/1000*B13</f>
+        <v>0.89059499999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="8">
         <v>138</v>
       </c>
-      <c r="C13">
-        <v>0.28979999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C14" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>9.6600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="8">
         <v>241.95</v>
       </c>
-      <c r="C14">
-        <v>0.14517000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8390000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="8">
         <v>170.48</v>
       </c>
-      <c r="C15">
-        <v>0.20457599999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C16" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>6.8192000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="8">
         <v>367</v>
       </c>
-      <c r="C16">
-        <v>61.98</v>
+      <c r="C17" s="9">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>20.552</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
